--- a/Permit Data Inventory/BuildingPermitDataInventory_Wyman_2025mmdd_v3.xlsx
+++ b/Permit Data Inventory/BuildingPermitDataInventory_Wyman_2025mmdd_v3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lukewyman/github-classroom/bmkt699-capstone-2025spring/capstone_missoula_building_permits/Permit Data Inventory/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{694EF75C-AC1E-794A-B160-69817387197F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED108541-6416-794D-AE5B-BCE3108F617D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="22100" windowWidth="38380" windowHeight="19680" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="22100" windowWidth="38400" windowHeight="19760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Requirements" sheetId="7" r:id="rId1"/>
@@ -21,7 +21,7 @@
   </sheets>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="14" r:id="rId6"/>
+    <pivotCache cacheId="1" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="198">
   <si>
     <t>Permit ID</t>
   </si>
@@ -987,12 +987,75 @@
   <si>
     <t>Mean(Days to Inspection)</t>
   </si>
+  <si>
+    <t>Application Intake</t>
+  </si>
+  <si>
+    <t>Application Document Review</t>
+  </si>
+  <si>
+    <t>Documents Rejected</t>
+  </si>
+  <si>
+    <t>Workflow Step</t>
+  </si>
+  <si>
+    <t>Decision</t>
+  </si>
+  <si>
+    <t>Next Step</t>
+  </si>
+  <si>
+    <t>sends email</t>
+  </si>
+  <si>
+    <t>Documents Resubmitted?</t>
+  </si>
+  <si>
+    <t>Addressing</t>
+  </si>
+  <si>
+    <t>Planning, Building, Electrical, Fire</t>
+  </si>
+  <si>
+    <t>Building</t>
+  </si>
+  <si>
+    <t>Electrical</t>
+  </si>
+  <si>
+    <t>Fire</t>
+  </si>
+  <si>
+    <t>Complete, Additional Info Required</t>
+  </si>
+  <si>
+    <t>Review Consolidation</t>
+  </si>
+  <si>
+    <t>END OF CYCLE</t>
+  </si>
+  <si>
+    <t>START OF CYCLE</t>
+  </si>
+  <si>
+    <t>Planning</t>
+  </si>
+  <si>
+    <t>Permit Approval</t>
+  </si>
+  <si>
+    <t>Fees Pending</t>
+  </si>
+  <si>
+    <t>In applicant's hands</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1056,8 +1119,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1105,6 +1175,21 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1122,11 +1207,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1212,303 +1300,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="4"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="5">
+    <cellStyle name="Accent1" xfId="2" builtinId="29"/>
+    <cellStyle name="Accent2" xfId="3" builtinId="33"/>
+    <cellStyle name="Accent3" xfId="4" builtinId="37"/>
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="113">
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
+  <dxfs count="17">
     <dxf>
       <alignment horizontal="left"/>
     </dxf>
@@ -1588,13 +1391,13 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Template 2_Extended-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="headerRow" dxfId="112"/>
-      <tableStyleElement type="firstRowStripe" dxfId="111"/>
-      <tableStyleElement type="secondRowStripe" dxfId="110"/>
+      <tableStyleElement type="headerRow" dxfId="16"/>
+      <tableStyleElement type="firstRowStripe" dxfId="15"/>
+      <tableStyleElement type="secondRowStripe" dxfId="14"/>
     </tableStyle>
     <tableStyle name="Template Field Definitions-style" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
-      <tableStyleElement type="firstRowStripe" dxfId="109"/>
-      <tableStyleElement type="secondRowStripe" dxfId="108"/>
+      <tableStyleElement type="firstRowStripe" dxfId="13"/>
+      <tableStyleElement type="secondRowStripe" dxfId="12"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -3089,7 +2892,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{08851B50-5E69-8E45-8F6B-D453D92F1B12}" name="PivotTable1" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" grandTotalCaption="Data Fields" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Proposed Metrc/Visualization" colHeaderCaption="New Data Field">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{08851B50-5E69-8E45-8F6B-D453D92F1B12}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" grandTotalCaption="Data Fields" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Proposed Metrc/Visualization" colHeaderCaption="New Data Field">
   <location ref="A1:K26" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField showAll="0"/>
@@ -3266,40 +3069,40 @@
     <dataField name="Count of New Data Table_x000a_What is the new data table called?" fld="2" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="12">
-    <format dxfId="107">
+    <format dxfId="11">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="106">
+    <format dxfId="10">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="105">
+    <format dxfId="9">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="104">
+    <format dxfId="8">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="103">
+    <format dxfId="7">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="102">
+    <format dxfId="6">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="101">
+    <format dxfId="5">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="100">
+    <format dxfId="4">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="99">
+    <format dxfId="3">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="98">
+    <format dxfId="2">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="97">
+    <format dxfId="1">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="96">
+    <format dxfId="0">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -3584,20 +3387,13 @@
       <c r="A3" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29">
+      <c r="F3" s="7">
         <v>2</v>
       </c>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29">
+      <c r="H3" s="7">
         <v>2</v>
       </c>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29">
+      <c r="K3" s="7">
         <v>4</v>
       </c>
     </row>
@@ -3605,20 +3401,13 @@
       <c r="A4" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29">
+      <c r="F4" s="7">
         <v>1</v>
       </c>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29">
+      <c r="H4" s="7">
         <v>1</v>
       </c>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29">
+      <c r="K4" s="7">
         <v>2</v>
       </c>
     </row>
@@ -3626,20 +3415,13 @@
       <c r="A5" s="28" t="s">
         <v>133</v>
       </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29">
+      <c r="F5" s="7">
         <v>1</v>
       </c>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29">
+      <c r="H5" s="7">
         <v>1</v>
       </c>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29">
+      <c r="K5" s="7">
         <v>2</v>
       </c>
     </row>
@@ -3647,32 +3429,31 @@
       <c r="A6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="29">
+      <c r="B6" s="7">
         <v>2</v>
       </c>
-      <c r="C6" s="29">
+      <c r="C6" s="7">
         <v>7</v>
       </c>
-      <c r="D6" s="29">
+      <c r="D6" s="7">
         <v>3</v>
       </c>
-      <c r="E6" s="29">
+      <c r="E6" s="7">
         <v>2</v>
       </c>
-      <c r="F6" s="29">
+      <c r="F6" s="7">
         <v>8</v>
       </c>
-      <c r="G6" s="29">
+      <c r="G6" s="7">
         <v>1</v>
       </c>
-      <c r="H6" s="29">
+      <c r="H6" s="7">
         <v>1</v>
       </c>
-      <c r="I6" s="29">
+      <c r="I6" s="7">
         <v>2</v>
       </c>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29">
+      <c r="K6" s="7">
         <v>26</v>
       </c>
     </row>
@@ -3680,18 +3461,10 @@
       <c r="A7" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29">
+      <c r="D7" s="7">
         <v>1</v>
       </c>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29">
+      <c r="K7" s="7">
         <v>1</v>
       </c>
     </row>
@@ -3699,18 +3472,10 @@
       <c r="A8" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29">
+      <c r="D8" s="7">
         <v>1</v>
       </c>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29">
+      <c r="K8" s="7">
         <v>1</v>
       </c>
     </row>
@@ -3718,20 +3483,13 @@
       <c r="A9" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29">
+      <c r="C9" s="7">
         <v>1</v>
       </c>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29">
+      <c r="E9" s="7">
         <v>1</v>
       </c>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29">
+      <c r="K9" s="7">
         <v>2</v>
       </c>
     </row>
@@ -3739,20 +3497,13 @@
       <c r="A10" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29">
+      <c r="C10" s="7">
         <v>1</v>
       </c>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29">
+      <c r="E10" s="7">
         <v>1</v>
       </c>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29">
+      <c r="K10" s="7">
         <v>2</v>
       </c>
     </row>
@@ -3760,18 +3511,10 @@
       <c r="A11" s="28" t="s">
         <v>159</v>
       </c>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29">
+      <c r="F11" s="7">
         <v>1</v>
       </c>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29">
+      <c r="K11" s="7">
         <v>1</v>
       </c>
     </row>
@@ -3779,18 +3522,10 @@
       <c r="A12" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29">
+      <c r="D12" s="7">
         <v>1</v>
       </c>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29">
+      <c r="K12" s="7">
         <v>1</v>
       </c>
     </row>
@@ -3798,18 +3533,10 @@
       <c r="A13" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="B13" s="29">
+      <c r="B13" s="7">
         <v>1</v>
       </c>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29">
+      <c r="K13" s="7">
         <v>1</v>
       </c>
     </row>
@@ -3817,18 +3544,10 @@
       <c r="A14" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="29"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29">
+      <c r="G14" s="7">
         <v>1</v>
       </c>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29">
+      <c r="K14" s="7">
         <v>1</v>
       </c>
     </row>
@@ -3836,18 +3555,10 @@
       <c r="A15" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29">
+      <c r="F15" s="7">
         <v>1</v>
       </c>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29">
+      <c r="K15" s="7">
         <v>1</v>
       </c>
     </row>
@@ -3855,22 +3566,16 @@
       <c r="A16" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="B16" s="29">
+      <c r="B16" s="7">
         <v>1</v>
       </c>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29">
+      <c r="F16" s="7">
         <v>1</v>
       </c>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29">
+      <c r="I16" s="7">
         <v>1</v>
       </c>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29">
+      <c r="K16" s="7">
         <v>3</v>
       </c>
     </row>
@@ -3878,20 +3583,13 @@
       <c r="A17" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29">
+      <c r="F17" s="7">
         <v>1</v>
       </c>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29">
+      <c r="I17" s="7">
         <v>1</v>
       </c>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29">
+      <c r="K17" s="7">
         <v>2</v>
       </c>
     </row>
@@ -3899,20 +3597,13 @@
       <c r="A18" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="29"/>
-      <c r="C18" s="29">
+      <c r="C18" s="7">
         <v>1</v>
       </c>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29">
+      <c r="F18" s="7">
         <v>1</v>
       </c>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29">
+      <c r="K18" s="7">
         <v>2</v>
       </c>
     </row>
@@ -3920,20 +3611,13 @@
       <c r="A19" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29">
+      <c r="C19" s="7">
         <v>1</v>
       </c>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29">
+      <c r="F19" s="7">
         <v>1</v>
       </c>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29">
+      <c r="K19" s="7">
         <v>2</v>
       </c>
     </row>
@@ -3941,20 +3625,13 @@
       <c r="A20" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="29"/>
-      <c r="C20" s="29">
+      <c r="C20" s="7">
         <v>1</v>
       </c>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29">
+      <c r="F20" s="7">
         <v>1</v>
       </c>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29">
+      <c r="K20" s="7">
         <v>2</v>
       </c>
     </row>
@@ -3962,20 +3639,13 @@
       <c r="A21" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="29"/>
-      <c r="C21" s="29">
+      <c r="C21" s="7">
         <v>1</v>
       </c>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29">
+      <c r="F21" s="7">
         <v>1</v>
       </c>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="29">
+      <c r="K21" s="7">
         <v>2</v>
       </c>
     </row>
@@ -3983,18 +3653,10 @@
       <c r="A22" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29">
+      <c r="H22" s="7">
         <v>1</v>
       </c>
-      <c r="I22" s="29"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="29">
+      <c r="K22" s="7">
         <v>1</v>
       </c>
     </row>
@@ -4002,18 +3664,10 @@
       <c r="A23" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="29"/>
-      <c r="C23" s="29">
+      <c r="C23" s="7">
         <v>1</v>
       </c>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="29"/>
-      <c r="K23" s="29">
+      <c r="K23" s="7">
         <v>1</v>
       </c>
     </row>
@@ -4021,62 +3675,41 @@
       <c r="A24" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="29"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="28" t="s">
         <v>165</v>
       </c>
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="29"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="29">
+      <c r="B26" s="7">
         <v>2</v>
       </c>
-      <c r="C26" s="29">
+      <c r="C26" s="7">
         <v>7</v>
       </c>
-      <c r="D26" s="29">
+      <c r="D26" s="7">
         <v>3</v>
       </c>
-      <c r="E26" s="29">
+      <c r="E26" s="7">
         <v>2</v>
       </c>
-      <c r="F26" s="29">
+      <c r="F26" s="7">
         <v>10</v>
       </c>
-      <c r="G26" s="29">
+      <c r="G26" s="7">
         <v>1</v>
       </c>
-      <c r="H26" s="29">
+      <c r="H26" s="7">
         <v>3</v>
       </c>
-      <c r="I26" s="29">
+      <c r="I26" s="7">
         <v>2</v>
       </c>
-      <c r="J26" s="29"/>
-      <c r="K26" s="29">
+      <c r="K26" s="7">
         <v>30</v>
       </c>
     </row>
@@ -4182,7 +3815,7 @@
   </sheetPr>
   <dimension ref="A1:M998"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A33" sqref="A33"/>
     </sheetView>
@@ -7591,17 +7224,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44D0EFCE-BAB4-DF48-99B7-DBB4E3025014}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="15.796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.59765625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="30.796875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="31.796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="59.796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -7710,6 +7347,139 @@
       </c>
       <c r="F7" s="1" t="s">
         <v>155</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="29" t="s">
+        <v>180</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B21" s="1"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -8044,11 +7814,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="16b3af4f-8665-4abf-bde6-d12b10eb8d97" ContentTypeId="0x010100A2264CC73B0E3F42B7DC30B97BC20687" PreviousValue="false"/>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="MissoulaDocument" ma:contentTypeID="0x010100A2264CC73B0E3F42B7DC30B97BC2068700D1ADA1E03449B94297980A03090C7303" ma:contentTypeVersion="5" ma:contentTypeDescription="" ma:contentTypeScope="" ma:versionID="dd4bd3cbc5f1480318e2f35492fc7f15">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6bebdc88-81df-4fa8-a063-e499ec71d186" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="30a1d3e9db2155f16a1adb78e9a5c080" ns2:_="">
     <xsd:import namespace="6bebdc88-81df-4fa8-a063-e499ec71d186"/>
@@ -8225,16 +7990,12 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="16b3af4f-8665-4abf-bde6-d12b10eb8d97" ContentTypeId="0x010100A2264CC73B0E3F42B7DC30B97BC20687" PreviousValue="false"/>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <gb9a9039080c41b1bb4e3627432e97a7 xmlns="6bebdc88-81df-4fa8-a063-e499ec71d186">
@@ -8252,15 +8013,16 @@
 </p:properties>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACE4FAF7-746F-4776-86FF-4CF13233D01B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06E22506-091D-47D8-B250-77FFC87E70D8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8278,15 +8040,15 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C79066B-4D52-413B-A3BD-F72619E3311A}">
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACE4FAF7-746F-4776-86FF-4CF13233D01B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1636F620-DC9F-443E-ACB8-A85F20C0DB24}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -8294,4 +8056,12 @@
     <ds:schemaRef ds:uri="6bebdc88-81df-4fa8-a063-e499ec71d186"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C79066B-4D52-413B-A3BD-F72619E3311A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Permit Data Inventory/BuildingPermitDataInventory_Wyman_2025mmdd_v3.xlsx
+++ b/Permit Data Inventory/BuildingPermitDataInventory_Wyman_2025mmdd_v3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lukewyman/github-classroom/bmkt699-capstone-2025spring/capstone_missoula_building_permits/Permit Data Inventory/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED108541-6416-794D-AE5B-BCE3108F617D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D6882E1-DC6C-074A-977C-0E5BA73840B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="22100" windowWidth="38400" windowHeight="19760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19200" yWindow="500" windowWidth="19200" windowHeight="21100" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Requirements" sheetId="7" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="201">
   <si>
     <t>Permit ID</t>
   </si>
@@ -1049,6 +1049,15 @@
   </si>
   <si>
     <t>In applicant's hands</t>
+  </si>
+  <si>
+    <t>FINAL</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>After Inspection</t>
   </si>
 </sst>
 </file>
@@ -3816,7 +3825,7 @@
   <dimension ref="A1:M998"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
@@ -7224,10 +7233,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44D0EFCE-BAB4-DF48-99B7-DBB4E3025014}">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -7482,6 +7491,28 @@
         <v>197</v>
       </c>
     </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7491,8 +7522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF86347D-13E8-7246-AE31-E15D2D93ED2D}">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="161" zoomScaleNormal="210" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="161" zoomScaleNormal="210" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -7501,7 +7532,7 @@
     <col min="2" max="2" width="17.796875" customWidth="1"/>
     <col min="3" max="4" width="31.3984375" customWidth="1"/>
     <col min="5" max="5" width="32.19921875" customWidth="1"/>
-    <col min="6" max="6" width="44.19921875" customWidth="1"/>
+    <col min="6" max="6" width="69.59765625" customWidth="1"/>
     <col min="7" max="7" width="13.19921875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.59765625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.3984375" bestFit="1" customWidth="1"/>
@@ -7562,7 +7593,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="143" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="25" t="s">
         <v>101</v>
       </c>
